--- a/Italy_NUTS.xlsx
+++ b/Italy_NUTS.xlsx
@@ -228,7 +228,7 @@
     <t>ITH10</t>
   </si>
   <si>
-    <t>Bolzano-Bozen</t>
+    <t>Bolzano</t>
   </si>
   <si>
     <t>ITH20</t>

--- a/Italy_NUTS.xlsx
+++ b/Italy_NUTS.xlsx
@@ -8,6 +8,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Italy_NUTS" hidden="0">Sheet1!$A$1:$F$108</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
@@ -210,7 +213,7 @@
     <t>ITC4D</t>
   </si>
   <si>
-    <t xml:space="preserve">Monza e della Brianza</t>
+    <t xml:space="preserve">Monza e Brianza</t>
   </si>
   <si>
     <t>ITH</t>
@@ -855,7 +858,7 @@
       <sz val="9.000000"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -868,6 +871,7 @@
         <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill/>
   </fills>
   <borders count="1">
     <border>
@@ -882,15 +886,18 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -906,21 +913,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table2" ref="$A$1:$F$108">
-  <autoFilter ref="$A$1:$F$108"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="NUTS 1"/>
-    <tableColumn id="2" name="Area"/>
-    <tableColumn id="3" name="NUTS 2"/>
-    <tableColumn id="4" name="Region"/>
-    <tableColumn id="5" name="NUTS 3"/>
-    <tableColumn id="6" name="Province"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1433,19 +1425,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1456,19 +1448,19 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1"/>
@@ -1477,19 +1469,19 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="1"/>
@@ -1498,19 +1490,19 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1"/>
@@ -1519,19 +1511,19 @@
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="1"/>
@@ -1540,19 +1532,19 @@
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1"/>
@@ -1561,19 +1553,19 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="1"/>
@@ -1582,19 +1574,19 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="1"/>
@@ -1603,19 +1595,19 @@
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="1"/>
@@ -1624,19 +1616,19 @@
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="1"/>
@@ -1645,19 +1637,19 @@
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="1"/>
@@ -1666,19 +1658,19 @@
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="1"/>
@@ -1687,19 +1679,19 @@
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="1"/>
@@ -1708,19 +1700,19 @@
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="1"/>
@@ -1729,19 +1721,19 @@
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="1"/>
@@ -1750,19 +1742,19 @@
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="1"/>
@@ -1771,19 +1763,19 @@
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="1"/>
@@ -1792,19 +1784,19 @@
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G18" s="1"/>
@@ -1813,19 +1805,19 @@
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G19" s="1"/>
@@ -1834,1780 +1826,1780 @@
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="58" ht="14.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="59" ht="14.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="64" ht="14.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="65" ht="14.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="66" ht="14.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="67" ht="14.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="68" ht="14.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="69" ht="14.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="71" ht="14.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="73" ht="14.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="74" ht="14.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="75" ht="14.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="76" ht="14.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="77" ht="14.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="78" ht="14.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="81" ht="14.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="82" ht="14.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="83" ht="14.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="84" ht="14.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="86" ht="14.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="4" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="87" ht="14.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="88" ht="14.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="89" ht="14.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="90" ht="14.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="91" ht="14.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="92" ht="14.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="93" ht="14.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="94" ht="14.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="95" ht="14.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="96" ht="14.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="97" ht="14.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="4" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="98" ht="14.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="4" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="99" ht="14.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="4" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="100" ht="14.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="4" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="101" ht="14.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="4" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="102" ht="14.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="4" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="103" ht="14.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="104" ht="14.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="4" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="105" ht="14.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="4" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="106" ht="14.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="4" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="107" ht="14.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="4" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="108" ht="14.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3616,8 +3608,5 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
   <headerFooter/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>